--- a/2. 캐릭터 세팅/초기 능력치.xlsx
+++ b/2. 캐릭터 세팅/초기 능력치.xlsx
@@ -637,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -876,7 +876,7 @@
         <v>14</v>
       </c>
       <c r="E19" s="18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F19" s="6">
         <v>2</v>
@@ -893,7 +893,7 @@
         <v>15</v>
       </c>
       <c r="E20" s="18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F20" s="6">
         <v>3</v>
